--- a/target/test-classes/policyBazaar.xlsx
+++ b/target/test-classes/policyBazaar.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="65">
   <si>
     <t>Insurance Type</t>
   </si>

--- a/target/test-classes/policyBazaar.xlsx
+++ b/target/test-classes/policyBazaar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304020\eclipse-workspace\final\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817E159-BBA1-4AFD-B2F5-AAADA57CC200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAD8CBE-D6E4-4A9F-B210-A74F66DAD174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{31D5B3FC-AC04-4D65-91E1-226E5C5029F6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="59">
   <si>
     <t>Insurance Type</t>
   </si>
@@ -129,6 +129,33 @@
     <t>Health Insurance Options</t>
   </si>
   <si>
+    <t>National Insurance</t>
+  </si>
+  <si>
+    <t>Bajaj Allianz</t>
+  </si>
+  <si>
+    <t>Niva Bupa (formerly known as Max Bupa)</t>
+  </si>
+  <si>
+    <t>Overseas Business &amp; Holiday</t>
+  </si>
+  <si>
+    <t>Travel Secure</t>
+  </si>
+  <si>
+    <t>Travel Assure</t>
+  </si>
+  <si>
+    <t>₹2,509</t>
+  </si>
+  <si>
+    <t>₹2,834</t>
+  </si>
+  <si>
+    <t>₹3,086</t>
+  </si>
+  <si>
     <t>Family Health Insurance</t>
   </si>
   <si>
@@ -165,73 +192,28 @@
     <t>Health Insurance Claim</t>
   </si>
   <si>
-    <t>National Insurance</t>
-  </si>
-  <si>
-    <t>Bajaj Allianz</t>
-  </si>
-  <si>
-    <t>Niva Bupa (formerly known as Max Bupa)</t>
-  </si>
-  <si>
-    <t>Overseas Business &amp; Holiday</t>
-  </si>
-  <si>
-    <t>Travel Secure</t>
-  </si>
-  <si>
-    <t>Travel Assure</t>
-  </si>
-  <si>
-    <t>₹1,094</t>
-  </si>
-  <si>
-    <t>₹1,231</t>
-  </si>
-  <si>
-    <t>₹1,282</t>
-  </si>
-  <si>
     <t>Reliance</t>
   </si>
   <si>
+    <t>Student Silver</t>
+  </si>
+  <si>
+    <t>₹2,788</t>
+  </si>
+  <si>
+    <t>Student Elite</t>
+  </si>
+  <si>
+    <t>₹2,874</t>
+  </si>
+  <si>
     <t>Care Health</t>
   </si>
   <si>
-    <t>Student Silver</t>
-  </si>
-  <si>
-    <t>Student Elite</t>
-  </si>
-  <si>
     <t>Student Explore Plus</t>
   </si>
   <si>
-    <t>₹2,788</t>
-  </si>
-  <si>
-    <t>₹2,874</t>
-  </si>
-  <si>
     <t>₹3,484</t>
-  </si>
-  <si>
-    <t>Tata AIG</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Travel Guard - Gold</t>
-  </si>
-  <si>
-    <t>Travel Care Individual</t>
-  </si>
-  <si>
-    <t>₹3,620</t>
-  </si>
-  <si>
-    <t>₹3,082</t>
   </si>
 </sst>
 </file>
@@ -606,7 +588,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -650,7 +632,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>45351</v>
+        <v>45361</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>16</v>
@@ -664,7 +646,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>45380</v>
+        <v>45397</v>
       </c>
       <c r="F4" t="s" s="0">
         <v>17</v>
@@ -735,7 +717,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -762,62 +744,62 @@
     </row>
     <row r="2">
       <c r="G2" t="s" s="0">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="G3" t="s" s="0">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="G4" t="s" s="0">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="G5" t="s" s="0">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="G6" t="s" s="0">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7">
       <c r="G7" t="s" s="0">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="G8" t="s" s="0">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
       <c r="G9" t="s" s="0">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
       <c r="G10" t="s" s="0">
-        <v>38</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
       <c r="G11" t="s" s="0">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="G12" t="s" s="0">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13">
       <c r="G13" t="s" s="0">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
